--- a/Project/setup/Phan tich.xlsx
+++ b/Project/setup/Phan tich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learn\GameProject_LTNC\Project\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB1CF5B-5B2F-41A8-8187-45D08F85AB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C014153-4FA4-40EA-B4B4-D25415E5880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="0" windowWidth="21600" windowHeight="15585" xr2:uid="{B1E0F199-E1CE-480F-854E-233D9BA0C59B}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12660" windowHeight="15585" xr2:uid="{B1E0F199-E1CE-480F-854E-233D9BA0C59B}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>i, j</t>
   </si>
@@ -75,6 +75,33 @@
   </si>
   <si>
     <t>7-Z</t>
+  </si>
+  <si>
+    <t>-1, 0</t>
+  </si>
+  <si>
+    <t>0, -1</t>
+  </si>
+  <si>
+    <t>1, -1</t>
+  </si>
+  <si>
+    <t>1, 0</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>-1, -1</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>-1, 1</t>
   </si>
 </sst>
 </file>
@@ -119,7 +146,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -456,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F2A10-C783-47FE-8D45-FEC0046D14A1}">
   <dimension ref="A3:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,13 +654,21 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -642,19 +677,41 @@
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
@@ -664,6 +721,9 @@
         <v>3</v>
       </c>
       <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -673,15 +733,24 @@
       <c r="C26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="O27" t="s">
         <v>4</v>
       </c>
